--- a/monografia/gestao- final.xlsx
+++ b/monografia/gestao- final.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tarefas</t>
   </si>
@@ -24,24 +24,9 @@
     <t>Plano de Projeto</t>
   </si>
   <si>
-    <t>Base de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesquisa </t>
-  </si>
-  <si>
-    <t>Estudo</t>
-  </si>
-  <si>
-    <t>Adaptação</t>
-  </si>
-  <si>
     <t>Testes</t>
   </si>
   <si>
-    <t>Desenvolvimento do software</t>
-  </si>
-  <si>
     <t>Módulo de avaliação</t>
   </si>
   <si>
@@ -75,7 +60,13 @@
     <t>Horas dedicadas</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Pesquisa pela base de dados</t>
+  </si>
+  <si>
+    <t>Estudo da base de dados</t>
+  </si>
+  <si>
+    <t>Adaptação da base de dados</t>
   </si>
 </sst>
 </file>
@@ -119,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -130,9 +121,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -146,6 +134,359 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas esperadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Plano de Projeto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pesquisa pela base de dados</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Estudo da base de dados</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Adaptação da base de dados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estudo de tecnologias a utilizar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Módulo de visualização do sinal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Módulo de marcação de eventos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Módulo de extração de características</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Módulo de reconhecimento de padrões</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Módulo de avaliação</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Testes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Elaboração do Relatório</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Reuniões</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas dedicadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Plano de Projeto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pesquisa pela base de dados</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Estudo da base de dados</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Adaptação da base de dados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estudo de tecnologias a utilizar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Módulo de visualização do sinal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Módulo de marcação de eventos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Módulo de extração de características</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Módulo de reconhecimento de padrões</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Módulo de avaliação</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Testes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Elaboração do Relatório</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Reuniões</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="77379072"/>
+        <c:axId val="77380608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77379072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77380608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77380608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77379072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562253</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,30 +812,30 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -504,106 +845,121 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B13" s="4">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
       </c>
       <c r="B14" s="4">
         <v>30</v>
       </c>
       <c r="C14" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4">
-        <v>50</v>
+        <f>B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14</f>
+        <v>460</v>
       </c>
       <c r="C15" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <f>B2+B4+B5+B6+B8+B9+B10+B11+B12+B13+B14+B15+B16</f>
-        <v>200</v>
-      </c>
-      <c r="C17" s="4">
-        <f>C2+C4+C5+C6+C8+C9+C10+C12+C11+C13+C14+C15+C16</f>
-        <v>320</v>
+        <f>C2+C3+C4+C5+C6+C7+C8+C10+C9+C11+C12+C13+C14</f>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
